--- a/Documents/Projektplan.xlsx
+++ b/Documents/Projektplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon FH\Desktop\Documents\Studium\Softwareprojekte\Semester 3 - Softwareprojekt 1\echt\urvent\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F14796-6C90-4D0E-8197-A5A082603A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542E2403-1C11-484E-A986-F4613B12A9D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,12 +132,6 @@
     <t>Simon Micheel</t>
   </si>
   <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
     <t>A/B</t>
   </si>
   <si>
@@ -145,6 +139,12 @@
   </si>
   <si>
     <t>Hendrik Lichtenberg</t>
+  </si>
+  <si>
+    <t>Nick Ringelmann</t>
+  </si>
+  <si>
+    <t>Steven Geiger</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A2:DF37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +840,7 @@
         <v>43758</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:110" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>43758</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:110" x14ac:dyDescent="0.25">
@@ -882,7 +882,7 @@
         <v>43759</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:110" x14ac:dyDescent="0.25">
@@ -896,7 +896,7 @@
         <v>43763</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:110" x14ac:dyDescent="0.25">
@@ -952,7 +952,7 @@
         <v>43768</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:110" x14ac:dyDescent="0.25">
@@ -1079,7 +1079,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
@@ -1115,7 +1115,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
